--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -33,13 +33,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <color rgb="ff666666"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <color rgb="ff333333"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
@@ -49,8 +59,14 @@
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="fff1f1f1"/>
+        <bgColor rgb="00000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -63,13 +79,33 @@
       <top style="none"/>
       <bottom style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="ffeeeeee"/>
+      </left>
+      <right style="thin">
+        <color rgb="ffeeeeee"/>
+      </right>
+      <top style="thin">
+        <color rgb="ffeeeeee"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="ffeeeeee"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs/>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf>
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="0" borderId="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="1" fillId="2" borderId="2">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="2" fillId="2" borderId="2">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -422,18 +458,18 @@
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="1">
+      <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="2">
         <v>3</v>
       </c>
     </row>
@@ -466,18 +502,18 @@
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="1">
+      <c r="A2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="3">
         <v>3</v>
       </c>
     </row>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -457,7 +457,7 @@
     <col min="2" max="2" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" outlineLevel="0">
+    <row r="1" customHeight="true" ht="20.00125984752" outlineLevel="0">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" outlineLevel="0">
+    <row r="2" customHeight="true" ht="20.00125984752" outlineLevel="0">
       <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
@@ -501,7 +501,7 @@
     <col min="2" max="2" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" outlineLevel="0">
+    <row r="1" customHeight="true" ht="20.00125984752" outlineLevel="0">
       <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" outlineLevel="0">
+    <row r="2" customHeight="true" ht="20.00125984752" outlineLevel="0">
       <c r="A2" t="s" s="3">
         <v>2</v>
       </c>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="JS XLSX"/>
   <workbookPr showObjects="all"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterateCount="100" iterate="false" iterateDelta="0.001" refMode="A1"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2" state="visible"/>
   </sheets>
+  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -66,13 +66,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -94,22 +88,17 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs/>
-  <cellXfs count="4">
-    <xf>
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+  <cellXfs count="3">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="0" borderId="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="1" fillId="2" borderId="2">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="2" fillId="2" borderId="2">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="2" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
-  <numFmts/>
 </styleSheet>
 </file>
 
@@ -435,88 +424,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr filterMode="0">
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" ht="20.00125984752" outlineLevel="0">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" ht="20.00125984752" outlineLevel="0">
+      <c r="A2" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <dimension ref="A1:B2"/>
-  <cols>
-    <col min="1" max="1" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="true" ht="20.00125984752" outlineLevel="0">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customHeight="true" ht="20.00125984752" outlineLevel="0">
-      <c r="A2" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr filterMode="0">
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" ht="20.00125984752" outlineLevel="0">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" ht="20.00125984752" outlineLevel="0">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <dimension ref="A1:B2"/>
-  <cols>
-    <col min="1" max="1" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="true" ht="20.00125984752" outlineLevel="0">
-      <c r="A1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customHeight="true" ht="20.00125984752" outlineLevel="0">
-      <c r="A2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
 </worksheet>
 </file>